--- a/Android/ExcelData/StarUpgrade.xlsx
+++ b/Android/ExcelData/StarUpgrade.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E15247-1CD0-47B3-A259-018E1272FD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB362FC-04C1-468F-884C-9CE5117D87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="40350" windowHeight="16530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Guide" sheetId="8" r:id="rId1"/>
-    <sheet name="!star_upgrade" sheetId="6" r:id="rId2"/>
+    <sheet name="star_upgrade" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -789,7 +789,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Android/ExcelData/StarUpgrade.xlsx
+++ b/Android/ExcelData/StarUpgrade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB362FC-04C1-468F-884C-9CE5117D87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082E112-43BA-45FF-9200-BEF3A6AE4DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="390" windowWidth="24135" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Guide" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>int</t>
   </si>
@@ -163,6 +163,10 @@
       </rPr>
       <t>수량</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +327,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -336,6 +340,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -789,7 +796,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -816,8 +823,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
+      <c r="A3" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>

--- a/Android/ExcelData/StarUpgrade.xlsx
+++ b/Android/ExcelData/StarUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082E112-43BA-45FF-9200-BEF3A6AE4DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4653A3-B3C2-4EE6-8177-2CB0AD80C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="390" windowWidth="24135" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49200" yWindow="-6195" windowWidth="10800" windowHeight="37800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Guide" sheetId="8" r:id="rId1"/>
@@ -793,10 +793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E993661-8E4D-4B88-A543-F5F1CEA214EE}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -888,6 +888,17 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>190</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/ExcelData/StarUpgrade.xlsx
+++ b/Android/ExcelData/StarUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4653A3-B3C2-4EE6-8177-2CB0AD80C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082E112-43BA-45FF-9200-BEF3A6AE4DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49200" yWindow="-6195" windowWidth="10800" windowHeight="37800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="390" windowWidth="24135" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Guide" sheetId="8" r:id="rId1"/>
@@ -793,10 +793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E993661-8E4D-4B88-A543-F5F1CEA214EE}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -888,17 +888,6 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>190</v>
-      </c>
-      <c r="C9" s="2">
-        <v>30000</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
